--- a/data/trans_dic/P44A$analisis-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Edad-trans_dic.xlsx
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2003137095117138</v>
+        <v>0.1818364909293396</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.172845363290236</v>
+        <v>0.1937970120731413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07413437353418725</v>
+        <v>0.07785475648262523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1692269997557319</v>
+        <v>0.1663444262135514</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.05554032136701817</v>
+        <v>0.05446519304738856</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2312120477231266</v>
+        <v>0.248859340804895</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.140160135148914</v>
+        <v>0.1212089210460931</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08378978110605947</v>
+        <v>0.0821234144975687</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.747024984465382</v>
+        <v>0.7644690445536225</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5789758814257481</v>
+        <v>0.5745359677153727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2262710955752752</v>
+        <v>0.2271860463735503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6365829831985463</v>
+        <v>0.6368602703074775</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1661532807965006</v>
+        <v>0.1703244072135709</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5848660192128832</v>
+        <v>0.5869052119117056</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4167857262721845</v>
+        <v>0.4302455493527371</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1839771752802681</v>
+        <v>0.1865364981065952</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1749763394841377</v>
+        <v>0.1747955353234928</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1831626633183357</v>
+        <v>0.197829038475376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09600134532343418</v>
+        <v>0.1009375903750026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0977830903376357</v>
+        <v>0.1022896150610676</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1983153206657547</v>
+        <v>0.2002852423226123</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07207822345020046</v>
+        <v>0.06896547884056281</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1757786459109882</v>
+        <v>0.1798289304635088</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2486021541928863</v>
+        <v>0.2340282646966156</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09325057216718508</v>
+        <v>0.09558563847529038</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4899588382822286</v>
+        <v>0.4741652574607844</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4642576466824274</v>
+        <v>0.4616486413570203</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1936468123774779</v>
+        <v>0.1956017146037369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.434476401223003</v>
+        <v>0.4302983273414609</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.536842364982263</v>
+        <v>0.5438330383212074</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1405794521729956</v>
+        <v>0.1424295243101539</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3981793008949375</v>
+        <v>0.3969948215384598</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4568580757499012</v>
+        <v>0.4560019581364708</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.154106938616626</v>
+        <v>0.1554130885116059</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1647843308765962</v>
+        <v>0.1693683975784523</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2752091418229001</v>
+        <v>0.2709985238790555</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09536126717248879</v>
+        <v>0.0982950841540878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1806274234108675</v>
+        <v>0.1810946863479245</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1886406569533858</v>
+        <v>0.1881296169676694</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09402462783615541</v>
+        <v>0.0952750827560484</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2190927998979326</v>
+        <v>0.2107958405737966</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2710053765988341</v>
+        <v>0.2665743270275009</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1062241522365606</v>
+        <v>0.1091790077001665</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.545321215709735</v>
+        <v>0.5646017797623724</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5837427871475046</v>
+        <v>0.5857354566904319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.184281981019525</v>
+        <v>0.1920098763240744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5123457257381707</v>
+        <v>0.49940833202882</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.527930681032542</v>
+        <v>0.5100041975502747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1773787871739448</v>
+        <v>0.1760646164056458</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.468661078183217</v>
+        <v>0.4729949702114649</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5133264325901694</v>
+        <v>0.4974753156763997</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1695301162433586</v>
+        <v>0.169966549156928</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2565148030866036</v>
+        <v>0.262166109181571</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2300316850147893</v>
+        <v>0.2288705825196093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06302729516249049</v>
+        <v>0.06045899409414368</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1587271503066512</v>
+        <v>0.1669095236416478</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2561110968121784</v>
+        <v>0.2511696502481235</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08994132234984918</v>
+        <v>0.0882084140227289</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2835613665143014</v>
+        <v>0.2915082960148718</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.279006894260834</v>
+        <v>0.2970568428287098</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09196365873391969</v>
+        <v>0.08893284507555636</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6729449440824535</v>
+        <v>0.6784358048565122</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5227975853306779</v>
+        <v>0.5194422885753747</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1700204359810384</v>
+        <v>0.1661246230460866</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.58752211562979</v>
+        <v>0.5968388176358089</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.628013652470947</v>
+        <v>0.6297452574372041</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1867008857840508</v>
+        <v>0.186356500187154</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5720301430541771</v>
+        <v>0.5783383084984732</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5119946883448887</v>
+        <v>0.5160073812172131</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1590636128989651</v>
+        <v>0.1614572221724073</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.108616797543558</v>
+        <v>0.1089408782654963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2920361017237663</v>
+        <v>0.2948352761696253</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1099031108998274</v>
+        <v>0.1089342563724473</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1615474696742403</v>
+        <v>0.1628728495461548</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4137089365894571</v>
+        <v>0.4116231887513355</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1439951043049849</v>
+        <v>0.1441188683441796</v>
       </c>
     </row>
     <row r="19">
@@ -1395,29 +1395,29 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2839</v>
+        <v>2577</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4629</v>
+        <v>5190</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7042</v>
+        <v>7396</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3471</v>
+        <v>3412</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>4263</v>
+        <v>4180</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8019</v>
+        <v>8631</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5301</v>
+        <v>4584</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14390</v>
+        <v>14104</v>
       </c>
     </row>
     <row r="7">
@@ -1428,29 +1428,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10587</v>
+        <v>10834</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15506</v>
+        <v>15387</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21495</v>
+        <v>21582</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13056</v>
+        <v>13061</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>12752</v>
+        <v>13072</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20284</v>
+        <v>20354</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15762</v>
+        <v>16271</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31597</v>
+        <v>32036</v>
       </c>
     </row>
     <row r="8">
@@ -1535,31 +1535,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6884</v>
+        <v>6877</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9597</v>
+        <v>10365</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18583</v>
+        <v>19538</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3302</v>
+        <v>3454</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7504</v>
+        <v>7579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12583</v>
+        <v>12039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12850</v>
+        <v>13146</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22433</v>
+        <v>21118</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34329</v>
+        <v>35189</v>
       </c>
     </row>
     <row r="11">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19275</v>
+        <v>18654</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24325</v>
+        <v>24188</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>37484</v>
+        <v>37863</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14670</v>
+        <v>14529</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20314</v>
+        <v>20579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24541</v>
+        <v>24864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29109</v>
+        <v>29022</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41225</v>
+        <v>41147</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>56733</v>
+        <v>57214</v>
       </c>
     </row>
     <row r="12">
@@ -1679,31 +1679,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5045</v>
+        <v>5185</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12085</v>
+        <v>11900</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16936</v>
+        <v>17457</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5669</v>
+        <v>5683</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5884</v>
+        <v>5868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14814</v>
+        <v>15011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13583</v>
+        <v>13069</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20354</v>
+        <v>20021</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35602</v>
+        <v>36592</v>
       </c>
     </row>
     <row r="15">
@@ -1714,31 +1714,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16694</v>
+        <v>17285</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25633</v>
+        <v>25720</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32729</v>
+        <v>34101</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16079</v>
+        <v>15673</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16468</v>
+        <v>15909</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27947</v>
+        <v>27740</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29056</v>
+        <v>29324</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38553</v>
+        <v>37362</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>56819</v>
+        <v>56966</v>
       </c>
     </row>
     <row r="16">
@@ -1823,31 +1823,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6474</v>
+        <v>6617</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8419</v>
+        <v>8376</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6599</v>
+        <v>6330</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3380</v>
+        <v>3554</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9234</v>
+        <v>9056</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10738</v>
+        <v>10531</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13196</v>
+        <v>13565</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20271</v>
+        <v>21582</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20609</v>
+        <v>19930</v>
       </c>
     </row>
     <row r="19">
@@ -1858,31 +1858,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16985</v>
+        <v>17124</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19133</v>
+        <v>19011</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17802</v>
+        <v>17394</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12511</v>
+        <v>12710</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22644</v>
+        <v>22706</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22291</v>
+        <v>22249</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26619</v>
+        <v>26913</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37198</v>
+        <v>37490</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35646</v>
+        <v>36182</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>62006</v>
+        <v>62191</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>80547</v>
+        <v>81319</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>120799</v>
+        <v>119734</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92223</v>
+        <v>92979</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>114106</v>
+        <v>113531</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>158270</v>
+        <v>158406</v>
       </c>
     </row>
     <row r="24">
